--- a/data/trans_camb/P6901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,99; -2,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,78; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; 10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,05; 6,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 20,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,82; 15,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,19; -3,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 5,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,35; 7,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,99%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,94; -2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,76; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,92; 12,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,74; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 26,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,15; 19,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,73; -3,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,82; 5,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,52; 9,02</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 7,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 9,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 11,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 16,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 8,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 7,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 9,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 7,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 9,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 12,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 13,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 15,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 20,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 10,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 9,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 13,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 9,9</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 31,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,5; 23,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,82; 10,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,7; 13,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 25,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 11,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 19,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 21,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,78; 8,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 70,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,58; 54,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,32; 23,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,78; 24,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,78; 46,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,79; 20,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,78; 36,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 41,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,59; 17,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; 5,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; 5,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 8,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 14,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 6,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 4,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 7,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 3,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,8%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,27; 7,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 7,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; 5,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 10,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 20,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 8,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 6,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 10,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 4,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-4,89</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 10,53</t>
+          <t>-17,13; 10,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,82; 15,33</t>
+          <t>-56,69; 15,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 7,63</t>
+          <t>-32,18; 7,96</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-5,7%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 12,68</t>
+          <t>-19,52; 12,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 19,04</t>
+          <t>-65,25; 18,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 9,02</t>
+          <t>-37,47; 9,22</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>3,08</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 9,64</t>
+          <t>-5,34; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 8,35</t>
+          <t>-7,39; 11,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,51</t>
+          <t>-3,05; 8,5</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 13,07</t>
+          <t>-6,87; 12,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 10,58</t>
+          <t>-8,19; 14,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,9</t>
+          <t>-3,74; 11,2</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 10,83</t>
+          <t>-26,27; 10,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 11,69</t>
+          <t>-19,41; 11,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 8,77</t>
+          <t>-14,05; 8,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-5,25%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 23,51</t>
+          <t>-43,46; 23,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 20,84</t>
+          <t>-25,61; 21,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 17,38</t>
+          <t>-22,24; 16,93</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,91</t>
+          <t>-9,35; 3,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 6,36</t>
+          <t>-7,48; 9,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,14</t>
+          <t>-5,98; 4,25</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-0,8%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 5,51</t>
+          <t>-12,03; 4,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 8,73</t>
+          <t>-9,14; 12,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,17</t>
+          <t>-7,62; 5,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,99; -2,01</t>
+          <t>-28,55; -1,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 3,05</t>
+          <t>-24,4; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 10,69</t>
+          <t>-17,1; 11,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 6,59</t>
+          <t>-29,67; 6,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 20,01</t>
+          <t>-18,8; 18,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 15,28</t>
+          <t>-49,17; 17,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,19; -3,08</t>
+          <t>-25,21; -3,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 5,03</t>
+          <t>-18,08; 5,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 7,96</t>
+          <t>-31,39; 7,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -2,54</t>
+          <t>-31,9; -1,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 3,6</t>
+          <t>-27,81; 5,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 12,66</t>
+          <t>-19,38; 14,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 8,82</t>
+          <t>-34,13; 7,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 26,23</t>
+          <t>-20,71; 23,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 18,94</t>
+          <t>-59,12; 20,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,73; -3,76</t>
+          <t>-28,7; -4,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 5,91</t>
+          <t>-20,45; 6,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 9,22</t>
+          <t>-35,47; 9,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 7,1</t>
+          <t>-8,56; 7,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 8,83</t>
+          <t>-5,96; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 9,4</t>
+          <t>-5,24; 9,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 11,77</t>
+          <t>-7,41; 11,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 16,06</t>
+          <t>-0,74; 16,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 11,27</t>
+          <t>-6,78; 11,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 7,51</t>
+          <t>-5,07; 6,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,92</t>
+          <t>-1,64; 9,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 8,5</t>
+          <t>-2,88; 8,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 9,91</t>
+          <t>-10,8; 9,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,14</t>
+          <t>-7,56; 11,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 12,8</t>
+          <t>-6,66; 13,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 15,35</t>
+          <t>-8,56; 14,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 20,77</t>
+          <t>-0,68; 21,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 14,64</t>
+          <t>-7,8; 14,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 9,79</t>
+          <t>-6,26; 8,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 13,19</t>
+          <t>-2,04; 12,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 11,2</t>
+          <t>-3,57; 11,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 31,89</t>
+          <t>-3,79; 32,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 23,69</t>
+          <t>-12,68; 23,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 10,86</t>
+          <t>-24,3; 11,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 13,6</t>
+          <t>-25,1; 13,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 25,75</t>
+          <t>-6,37; 24,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 11,62</t>
+          <t>-17,84; 13,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 19,01</t>
+          <t>-6,79; 20,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 21,52</t>
+          <t>-2,96; 20,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 8,79</t>
+          <t>-14,66; 8,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 70,57</t>
+          <t>-5,83; 72,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 54,5</t>
+          <t>-21,37; 50,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 23,98</t>
+          <t>-40,25; 26,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 24,02</t>
+          <t>-34,49; 23,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 46,55</t>
+          <t>-8,56; 45,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 21,29</t>
+          <t>-24,8; 26,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 36,15</t>
+          <t>-10,96; 38,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 41,46</t>
+          <t>-4,58; 38,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 16,93</t>
+          <t>-22,62; 16,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,45</t>
+          <t>-7,1; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,39</t>
+          <t>-7,0; 5,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 3,61</t>
+          <t>-8,92; 4,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>-8,01; 8,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>-0,85; 14,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 9,41</t>
+          <t>-7,61; 7,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,75</t>
+          <t>-5,23; 5,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,35</t>
+          <t>-2,23; 7,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,25</t>
+          <t>-6,05; 4,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 7,37</t>
+          <t>-9,19; 7,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,29</t>
+          <t>-9,08; 8,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 4,98</t>
+          <t>-11,67; 5,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,94</t>
+          <t>-9,75; 10,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 20,0</t>
+          <t>-0,58; 19,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 12,83</t>
+          <t>-9,43; 10,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 6,45</t>
+          <t>-6,65; 7,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 10,0</t>
+          <t>-2,94; 10,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 5,74</t>
+          <t>-7,78; 6,37</t>
         </is>
       </c>
     </row>
